--- a/LoanOfficer-A/2023/7 Salam sunanda.xlsx
+++ b/LoanOfficer-A/2023/7 Salam sunanda.xlsx
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>6400</v>
+        <v>7100</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>5600</v>
+        <v>4900</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1161,9 +1161,15 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="3">
+        <v>45308</v>
+      </c>
+      <c r="C12" s="4">
+        <v>700</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1">
         <v>40</v>
       </c>

--- a/LoanOfficer-A/2023/7 Salam sunanda.xlsx
+++ b/LoanOfficer-A/2023/7 Salam sunanda.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>7100</v>
+        <v>7800</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1193,9 +1193,15 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="3">
+        <v>45318</v>
+      </c>
+      <c r="C13" s="4">
+        <v>700</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1">
         <v>41</v>
       </c>

--- a/LoanOfficer-A/2023/7 Salam sunanda.xlsx
+++ b/LoanOfficer-A/2023/7 Salam sunanda.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>7800</v>
+        <v>8500</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1225,9 +1225,15 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="3">
+        <v>45322</v>
+      </c>
+      <c r="C14" s="4">
+        <v>700</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1">
         <v>42</v>
       </c>

--- a/LoanOfficer-A/2023/7 Salam sunanda.xlsx
+++ b/LoanOfficer-A/2023/7 Salam sunanda.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>8500</v>
+        <v>9200</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1257,9 +1257,15 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="3">
+        <v>45330</v>
+      </c>
+      <c r="C15" s="4">
+        <v>700</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1">
         <v>43</v>
       </c>

--- a/LoanOfficer-A/2023/7 Salam sunanda.xlsx
+++ b/LoanOfficer-A/2023/7 Salam sunanda.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>9200</v>
+        <v>12000</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1289,9 +1289,15 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="3">
+        <v>45332</v>
+      </c>
+      <c r="C16" s="4">
+        <v>700</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
       <c r="E16" s="1">
         <v>44</v>
       </c>
@@ -1315,9 +1321,15 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="3">
+        <v>45332</v>
+      </c>
+      <c r="C17" s="4">
+        <v>700</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
       <c r="E17" s="1">
         <v>45</v>
       </c>
@@ -1341,9 +1353,15 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="3">
+        <v>45332</v>
+      </c>
+      <c r="C18" s="4">
+        <v>700</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
       <c r="E18" s="1">
         <v>46</v>
       </c>
@@ -1367,9 +1385,15 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="3">
+        <v>45332</v>
+      </c>
+      <c r="C19" s="4">
+        <v>700</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
       <c r="E19" s="1">
         <v>47</v>
       </c>
